--- a/Code/Results/Cases/Case_4_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.09534032538528</v>
+        <v>20.32672348343714</v>
       </c>
       <c r="C2">
-        <v>12.00115940447113</v>
+        <v>7.032547231609001</v>
       </c>
       <c r="D2">
-        <v>8.788369359142928</v>
+        <v>13.23667059365011</v>
       </c>
       <c r="E2">
-        <v>7.728097249614025</v>
+        <v>13.30050451092633</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.099087688274953</v>
+        <v>3.691422788458469</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>17.15003618038197</v>
+        <v>27.80625263008561</v>
       </c>
       <c r="J2">
-        <v>4.821920359816502</v>
+        <v>8.124831417009732</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.651475024987864</v>
+        <v>13.02087881682436</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.49263914604803</v>
+        <v>18.87737904267741</v>
       </c>
       <c r="O2">
-        <v>19.99637750496334</v>
+        <v>30.01451601961928</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.71677430555361</v>
+        <v>19.94821412473954</v>
       </c>
       <c r="C3">
-        <v>11.26530793806503</v>
+        <v>6.636453385791423</v>
       </c>
       <c r="D3">
-        <v>8.610838968283886</v>
+        <v>13.24272221209651</v>
       </c>
       <c r="E3">
-        <v>7.751401596201961</v>
+        <v>13.3321159949392</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.105611717531337</v>
+        <v>3.693932781911682</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>17.20135469306488</v>
+        <v>27.90737420016027</v>
       </c>
       <c r="J3">
-        <v>4.835976266501381</v>
+        <v>8.130868781462437</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.427762890913574</v>
+        <v>13.01102782136025</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.6830053574368</v>
+        <v>18.93706305013791</v>
       </c>
       <c r="O3">
-        <v>19.73471767832359</v>
+        <v>30.07524951261751</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.82862600887855</v>
+        <v>19.71555049186747</v>
       </c>
       <c r="C4">
-        <v>10.78906602365832</v>
+        <v>6.379477741944648</v>
       </c>
       <c r="D4">
-        <v>8.50550798954062</v>
+        <v>13.24881455245389</v>
       </c>
       <c r="E4">
-        <v>7.769250727763779</v>
+        <v>13.35312613052129</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.109740105735129</v>
+        <v>3.695556367417525</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>17.24842008676177</v>
+        <v>27.97503563685443</v>
       </c>
       <c r="J4">
-        <v>4.844989068449019</v>
+        <v>8.134789824018144</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.291517853070703</v>
+        <v>13.00691320339064</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.80305420347245</v>
+        <v>18.97558595449494</v>
       </c>
       <c r="O4">
-        <v>19.59090301543622</v>
+        <v>30.11932099638203</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.45637126066175</v>
+        <v>19.62079891522044</v>
       </c>
       <c r="C5">
-        <v>10.58886617407482</v>
+        <v>6.271332363913692</v>
       </c>
       <c r="D5">
-        <v>8.463539867843556</v>
+        <v>13.25189528186098</v>
       </c>
       <c r="E5">
-        <v>7.777392437337423</v>
+        <v>13.36209077031533</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.111454149025626</v>
+        <v>3.69623878979129</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>17.27133308018865</v>
+        <v>28.00400688858281</v>
       </c>
       <c r="J5">
-        <v>4.84875842123686</v>
+        <v>8.136441661939408</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.236341924679616</v>
+        <v>13.00572476837068</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.85278276966417</v>
+        <v>18.99175752699884</v>
       </c>
       <c r="O5">
-        <v>19.53644833206245</v>
+        <v>30.13898152235226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.39394059920863</v>
+        <v>19.60507286503971</v>
       </c>
       <c r="C6">
-        <v>10.5552537649601</v>
+        <v>6.253169282884449</v>
       </c>
       <c r="D6">
-        <v>8.456629661533094</v>
+        <v>13.25244296390695</v>
       </c>
       <c r="E6">
-        <v>7.778796153570909</v>
+        <v>13.36360368312696</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.111740703085537</v>
+        <v>3.696353363662585</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>17.27535812376184</v>
+        <v>28.00890194383681</v>
       </c>
       <c r="J6">
-        <v>4.849390163497193</v>
+        <v>8.136719213118008</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.227202773291301</v>
+        <v>13.00555697609624</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.86108930235405</v>
+        <v>18.99447142049362</v>
       </c>
       <c r="O6">
-        <v>19.52765417377971</v>
+        <v>30.14234874951336</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.82364721669495</v>
+        <v>19.7142722257012</v>
       </c>
       <c r="C7">
-        <v>10.78639083869724</v>
+        <v>6.378033069798478</v>
       </c>
       <c r="D7">
-        <v>8.504938085364437</v>
+        <v>13.24885367834457</v>
       </c>
       <c r="E7">
-        <v>7.769357043844321</v>
+        <v>13.3532453992219</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.10976309249554</v>
+        <v>3.69556548650346</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>17.24871421526995</v>
+        <v>27.97542069356686</v>
       </c>
       <c r="J7">
-        <v>4.845039511737504</v>
+        <v>8.134811882513899</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.290772247163478</v>
+        <v>13.00689519613726</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.80372157371559</v>
+        <v>18.9758021324261</v>
       </c>
       <c r="O7">
-        <v>19.59015193406675</v>
+        <v>30.11957926338869</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.62874659944382</v>
+        <v>20.19634139952786</v>
       </c>
       <c r="C8">
-        <v>11.75251214180996</v>
+        <v>6.898852237251421</v>
       </c>
       <c r="D8">
-        <v>8.726413737119287</v>
+        <v>13.23826424090642</v>
       </c>
       <c r="E8">
-        <v>7.735384298027692</v>
+        <v>13.31107217620527</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.101312258498518</v>
+        <v>3.692271164926877</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>17.16439394846368</v>
+        <v>27.83996127222872</v>
       </c>
       <c r="J8">
-        <v>4.826687704287143</v>
+        <v>8.126868759087829</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.574145617396709</v>
+        <v>13.01708207098611</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.55762827778036</v>
+        <v>18.89756934678229</v>
       </c>
       <c r="O8">
-        <v>19.90261321681453</v>
+        <v>30.03404722746899</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.83302774918385</v>
+        <v>21.13426148060372</v>
       </c>
       <c r="C9">
-        <v>13.45328679675295</v>
+        <v>7.8096820624539</v>
       </c>
       <c r="D9">
-        <v>9.188455836655498</v>
+        <v>13.23632971600388</v>
       </c>
       <c r="E9">
-        <v>7.697880930739491</v>
+        <v>13.24105403938091</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.085671699396791</v>
+        <v>3.68646202856756</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>17.13061166392292</v>
+        <v>27.61865360537207</v>
       </c>
       <c r="J9">
-        <v>4.793716391749967</v>
+        <v>8.112984105625477</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.136010041723512</v>
+        <v>13.05230738774878</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.09958324806196</v>
+        <v>18.75898770547266</v>
       </c>
       <c r="O9">
-        <v>20.65227582280657</v>
+        <v>29.92028913337122</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.06809565820387</v>
+        <v>21.81189067101674</v>
       </c>
       <c r="C10">
-        <v>14.58555485627539</v>
+        <v>8.410361496727079</v>
       </c>
       <c r="D10">
-        <v>9.542961030044594</v>
+        <v>13.24634271760607</v>
       </c>
       <c r="E10">
-        <v>7.689544161304308</v>
+        <v>13.19732168986459</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.074686961624573</v>
+        <v>3.682586598448946</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>17.19735827844869</v>
+        <v>27.48323646230982</v>
       </c>
       <c r="J10">
-        <v>4.771307547918544</v>
+        <v>8.103804919977934</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.549299305769138</v>
+        <v>13.08734303270064</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.77725546361869</v>
+        <v>18.66613277712204</v>
       </c>
       <c r="O10">
-        <v>21.29036024237036</v>
+        <v>29.86981787890616</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.04632743583866</v>
+        <v>22.11629485899123</v>
       </c>
       <c r="C11">
-        <v>15.07555265203909</v>
+        <v>8.668614926958782</v>
       </c>
       <c r="D11">
-        <v>9.70713697190496</v>
+        <v>13.25336642573982</v>
       </c>
       <c r="E11">
-        <v>7.690257481898997</v>
+        <v>13.17909614466858</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.069784981138509</v>
+        <v>3.680907879351342</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>17.25008930507359</v>
+        <v>27.42756569763419</v>
       </c>
       <c r="J11">
-        <v>4.761502792118724</v>
+        <v>8.099848946882764</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.73683378182934</v>
+        <v>13.10523505134565</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.63354522162249</v>
+        <v>18.62581935339424</v>
       </c>
       <c r="O11">
-        <v>21.60027084705956</v>
+        <v>29.85408069549418</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.4093815558757</v>
+        <v>22.23090315140133</v>
       </c>
       <c r="C12">
-        <v>15.25753531762048</v>
+        <v>8.764245309681543</v>
       </c>
       <c r="D12">
-        <v>9.769697472064632</v>
+        <v>13.2563794801036</v>
       </c>
       <c r="E12">
-        <v>7.691204262259646</v>
+        <v>13.17243417219633</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.067941082618542</v>
+        <v>3.680284234615009</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.2734796712134</v>
+        <v>27.40734022522021</v>
       </c>
       <c r="J12">
-        <v>4.757845657613402</v>
+        <v>8.098382360365228</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.807739143939553</v>
+        <v>13.11228793655317</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.57953384228142</v>
+        <v>18.61082952141224</v>
       </c>
       <c r="O12">
-        <v>21.72049818184506</v>
+        <v>29.8491619788117</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.33151803604357</v>
+        <v>22.20625136155716</v>
       </c>
       <c r="C13">
-        <v>15.21850015439713</v>
+        <v>8.74374595769237</v>
       </c>
       <c r="D13">
-        <v>9.756206976082433</v>
+        <v>13.25571487975613</v>
       </c>
       <c r="E13">
-        <v>7.69096979173858</v>
+        <v>13.17385829342209</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.068337670398312</v>
+        <v>3.680418012748644</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.26828664472643</v>
+        <v>27.41165803254964</v>
       </c>
       <c r="J13">
-        <v>4.758630812439699</v>
+        <v>8.098696819207714</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.792473887374745</v>
+        <v>13.11075668386867</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.59114815632574</v>
+        <v>18.61404559227958</v>
       </c>
       <c r="O13">
-        <v>21.69447666198742</v>
+        <v>29.85017500409027</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.07634347318972</v>
+        <v>22.12573764177214</v>
       </c>
       <c r="C14">
-        <v>15.09059576308257</v>
+        <v>8.676525911295329</v>
       </c>
       <c r="D14">
-        <v>9.712276178327949</v>
+        <v>13.25360724074346</v>
       </c>
       <c r="E14">
-        <v>7.690321644138935</v>
+        <v>13.17854325896553</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.069633042231824</v>
+        <v>3.680856330587086</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>17.25194387518683</v>
+        <v>27.42588456687635</v>
       </c>
       <c r="J14">
-        <v>4.761200802098776</v>
+        <v>8.099727660302483</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.742669626673022</v>
+        <v>13.1058097541189</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.62909354538412</v>
+        <v>18.62458060580906</v>
       </c>
       <c r="O14">
-        <v>21.61010422332336</v>
+        <v>29.85365516448904</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.91908340160815</v>
+        <v>22.07633119439561</v>
       </c>
       <c r="C15">
-        <v>15.01178708101623</v>
+        <v>8.635069620704227</v>
       </c>
       <c r="D15">
-        <v>9.685417409465495</v>
+        <v>13.25236221103472</v>
       </c>
       <c r="E15">
-        <v>7.690013628520309</v>
+        <v>13.18144413610018</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.07042806648125</v>
+        <v>3.68112638029353</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>17.24238526131481</v>
+        <v>27.43471027190859</v>
       </c>
       <c r="J15">
-        <v>4.762782244131762</v>
+        <v>8.100363172552354</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.712147641530779</v>
+        <v>13.10281565819031</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.6523890836271</v>
+        <v>18.63106951578013</v>
       </c>
       <c r="O15">
-        <v>21.55879890068405</v>
+        <v>29.85592243320005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.00312771538333</v>
+        <v>21.79191016566075</v>
       </c>
       <c r="C16">
-        <v>14.55303075317389</v>
+        <v>8.393181476857107</v>
       </c>
       <c r="D16">
-        <v>9.53228783730037</v>
+        <v>13.24593324158358</v>
       </c>
       <c r="E16">
-        <v>7.68959064272822</v>
+        <v>13.19854632267904</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.075009121805946</v>
+        <v>3.682697996294634</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>17.19437984979222</v>
+        <v>27.48699428054194</v>
       </c>
       <c r="J16">
-        <v>4.771956120307737</v>
+        <v>8.104067861107893</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.537030240243574</v>
+        <v>13.08621278092619</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.78670502652062</v>
+        <v>18.66880603269407</v>
       </c>
       <c r="O16">
-        <v>21.27050611249616</v>
+        <v>29.87099186072162</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.42796847796645</v>
+        <v>21.61636090700902</v>
       </c>
       <c r="C17">
-        <v>14.26520002702367</v>
+        <v>8.240942836590797</v>
       </c>
       <c r="D17">
-        <v>9.43907213780987</v>
+        <v>13.24262046665472</v>
       </c>
       <c r="E17">
-        <v>7.690505285650409</v>
+        <v>13.20946510616039</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.077842903460066</v>
+        <v>3.683683661108416</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>17.17080511152325</v>
+        <v>27.52059004861577</v>
       </c>
       <c r="J17">
-        <v>4.77768347587215</v>
+        <v>8.106396737064019</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.429448389570386</v>
+        <v>13.07652558258356</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.86984285512406</v>
+        <v>18.69244887681042</v>
       </c>
       <c r="O17">
-        <v>21.09871235747527</v>
+        <v>29.88208792038876</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.09225288744097</v>
+        <v>21.51503312870346</v>
       </c>
       <c r="C18">
-        <v>14.09728439152332</v>
+        <v>8.151967692329434</v>
       </c>
       <c r="D18">
-        <v>9.385732271074943</v>
+        <v>13.24094753132158</v>
       </c>
       <c r="E18">
-        <v>7.691453682680804</v>
+        <v>13.21590236784785</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.079481847447963</v>
+        <v>3.6842585216262</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>17.15933850806458</v>
+        <v>27.54047154226665</v>
       </c>
       <c r="J18">
-        <v>4.781014338967931</v>
+        <v>8.107756930702017</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.367527746156766</v>
+        <v>13.07113791455873</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.91793684405101</v>
+        <v>18.70622903316238</v>
       </c>
       <c r="O18">
-        <v>21.00174744720658</v>
+        <v>29.88914980184867</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.97774117866654</v>
+        <v>21.4806674737095</v>
       </c>
       <c r="C19">
-        <v>14.04002417797498</v>
+        <v>8.121600100388378</v>
       </c>
       <c r="D19">
-        <v>9.367720505213033</v>
+        <v>13.24042108078879</v>
       </c>
       <c r="E19">
-        <v>7.691846469684043</v>
+        <v>13.21810889896659</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.08003835396262</v>
+        <v>3.684454523806366</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>17.15580932559687</v>
+        <v>27.54729883772887</v>
       </c>
       <c r="J19">
-        <v>4.782148413074104</v>
+        <v>8.108221025855071</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.34655658056092</v>
+        <v>13.06934547191329</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.93426827553947</v>
+        <v>18.71092594919817</v>
       </c>
       <c r="O19">
-        <v>20.96923246135144</v>
+        <v>29.89165750590377</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.48970155397456</v>
+        <v>21.63508612851229</v>
       </c>
       <c r="C20">
-        <v>14.29608441575191</v>
+        <v>8.25729505166262</v>
       </c>
       <c r="D20">
-        <v>9.448966824977777</v>
+        <v>13.24294906722617</v>
       </c>
       <c r="E20">
-        <v>7.690364007366248</v>
+        <v>13.20828652931258</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.077540317262323</v>
+        <v>3.683577914911623</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>17.17309658094776</v>
+        <v>27.51695593938025</v>
       </c>
       <c r="J20">
-        <v>4.777069998950041</v>
+        <v>8.106146684328849</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.440905374791297</v>
+        <v>13.07753776646293</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.86096428040014</v>
+        <v>18.68991328749224</v>
       </c>
       <c r="O20">
-        <v>21.11680866953992</v>
+        <v>29.88083636083844</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.15149395301124</v>
+        <v>22.14940530423604</v>
       </c>
       <c r="C21">
-        <v>15.12826091032489</v>
+        <v>8.696328861397232</v>
       </c>
       <c r="D21">
-        <v>9.725169318968344</v>
+        <v>13.25421673070357</v>
       </c>
       <c r="E21">
-        <v>7.690493421746543</v>
+        <v>13.17716066938573</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.069252235051237</v>
+        <v>3.680727259485418</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17.25664961876171</v>
+        <v>27.42168263844841</v>
       </c>
       <c r="J21">
-        <v>4.760444423485237</v>
+        <v>8.099424024691045</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.757301627703342</v>
+        <v>13.1072552827647</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.61793706092154</v>
+        <v>18.62147873524533</v>
       </c>
       <c r="O21">
-        <v>21.63480817414</v>
+        <v>29.85260470146284</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.19459889860027</v>
+        <v>22.48163208002223</v>
       </c>
       <c r="C22">
-        <v>15.65135645718263</v>
+        <v>8.970644423750993</v>
       </c>
       <c r="D22">
-        <v>9.907950574067554</v>
+        <v>13.26363932384534</v>
       </c>
       <c r="E22">
-        <v>7.694536264080569</v>
+        <v>13.15821482613907</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.063906952594771</v>
+        <v>3.678934397689232</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.33129997124311</v>
+        <v>27.36440584187422</v>
       </c>
       <c r="J22">
-        <v>4.749903315033939</v>
+        <v>8.095213657552888</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.963429850104562</v>
+        <v>13.12829350902024</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.46148162151682</v>
+        <v>18.57836097583129</v>
       </c>
       <c r="O22">
-        <v>21.99010607126911</v>
+        <v>29.84021974048175</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.64177277667207</v>
+        <v>22.30470864526026</v>
       </c>
       <c r="C23">
-        <v>15.37405779580276</v>
+        <v>8.825393431275236</v>
       </c>
       <c r="D23">
-        <v>9.810197484143069</v>
+        <v>13.25842256828788</v>
       </c>
       <c r="E23">
-        <v>7.692006547357357</v>
+        <v>13.16819887557371</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.066753745123367</v>
+        <v>3.679884878558108</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.28955547962017</v>
+        <v>27.39451801689921</v>
       </c>
       <c r="J23">
-        <v>4.755499663370295</v>
+        <v>8.097444084178234</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.853487351054572</v>
+        <v>13.11691833191021</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.54477080353207</v>
+        <v>18.60122693777933</v>
       </c>
       <c r="O23">
-        <v>21.79892861642942</v>
+        <v>29.84627424639272</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.46180776349102</v>
+        <v>21.62662170014739</v>
       </c>
       <c r="C24">
-        <v>14.282129179901</v>
+        <v>8.249906734602698</v>
       </c>
       <c r="D24">
-        <v>9.444492652687488</v>
+        <v>13.2427997853106</v>
       </c>
       <c r="E24">
-        <v>7.690426565270384</v>
+        <v>13.20881886578822</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.077677085969854</v>
+        <v>3.683625697254643</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>17.17205412320223</v>
+        <v>27.51859715465958</v>
       </c>
       <c r="J24">
-        <v>4.777347233080546</v>
+        <v>8.106259666838286</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.435725887807163</v>
+        <v>13.07707959210942</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.86497735827068</v>
+        <v>18.69105904304323</v>
       </c>
       <c r="O24">
-        <v>21.10862171874173</v>
+        <v>29.88140006472625</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.00258444524876</v>
+        <v>20.88205662611571</v>
       </c>
       <c r="C25">
-        <v>13.01387692508258</v>
+        <v>7.57524823042884</v>
       </c>
       <c r="D25">
-        <v>9.060687973195812</v>
+        <v>13.23484085115008</v>
       </c>
       <c r="E25">
-        <v>7.70476116446951</v>
+        <v>13.25864023875148</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.089809265432107</v>
+        <v>3.687964307814114</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>17.12450303621768</v>
+        <v>27.67376156772606</v>
       </c>
       <c r="J25">
-        <v>4.802315613217782</v>
+        <v>8.116560140105726</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.983706424923311</v>
+        <v>13.04115907081313</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.22094891084767</v>
+        <v>18.79489826545732</v>
       </c>
       <c r="O25">
-        <v>20.43438429125118</v>
+        <v>29.94526283954927</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_231/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_231/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.32672348343714</v>
+        <v>22.09534032538527</v>
       </c>
       <c r="C2">
-        <v>7.032547231609001</v>
+        <v>12.00115940447112</v>
       </c>
       <c r="D2">
-        <v>13.23667059365011</v>
+        <v>8.788369359142914</v>
       </c>
       <c r="E2">
-        <v>13.30050451092633</v>
+        <v>7.728097249614035</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.691422788458469</v>
+        <v>2.099087688275088</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>27.80625263008561</v>
+        <v>17.15003618038184</v>
       </c>
       <c r="J2">
-        <v>8.124831417009732</v>
+        <v>4.821920359816534</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.02087881682436</v>
+        <v>8.651475024987846</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.87737904267741</v>
+        <v>12.49263914604793</v>
       </c>
       <c r="O2">
-        <v>30.01451601961928</v>
+        <v>19.99637750496321</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.94821412473954</v>
+        <v>20.71677430555364</v>
       </c>
       <c r="C3">
-        <v>6.636453385791423</v>
+        <v>11.26530793806491</v>
       </c>
       <c r="D3">
-        <v>13.24272221209651</v>
+        <v>8.610838968283877</v>
       </c>
       <c r="E3">
-        <v>13.3321159949392</v>
+        <v>7.751401596201967</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.693932781911682</v>
+        <v>2.105611717531471</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.90737420016027</v>
+        <v>17.20135469306491</v>
       </c>
       <c r="J3">
-        <v>8.130868781462437</v>
+        <v>4.835976266501345</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>13.01102782136025</v>
+        <v>8.427762890913627</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.93706305013791</v>
+        <v>12.68300535743679</v>
       </c>
       <c r="O3">
-        <v>30.07524951261751</v>
+        <v>19.73471767832367</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.71555049186747</v>
+        <v>19.82862600887855</v>
       </c>
       <c r="C4">
-        <v>6.379477741944648</v>
+        <v>10.78906602365823</v>
       </c>
       <c r="D4">
-        <v>13.24881455245389</v>
+        <v>8.505507989540538</v>
       </c>
       <c r="E4">
-        <v>13.35312613052129</v>
+        <v>7.769250727763777</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.695556367417525</v>
+        <v>2.109740105735261</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.97503563685443</v>
+        <v>17.24842008676171</v>
       </c>
       <c r="J4">
-        <v>8.134789824018144</v>
+        <v>4.844989068449086</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>13.00691320339064</v>
+        <v>8.291517853070737</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.97558595449494</v>
+        <v>12.80305420347241</v>
       </c>
       <c r="O4">
-        <v>30.11932099638203</v>
+        <v>19.59090301543619</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.62079891522044</v>
+        <v>19.45637126066177</v>
       </c>
       <c r="C5">
-        <v>6.271332363913692</v>
+        <v>10.58886617407483</v>
       </c>
       <c r="D5">
-        <v>13.25189528186098</v>
+        <v>8.463539867843561</v>
       </c>
       <c r="E5">
-        <v>13.36209077031533</v>
+        <v>7.777392437337547</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.69623878979129</v>
+        <v>2.111454149025759</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>28.00400688858281</v>
+        <v>17.27133308018875</v>
       </c>
       <c r="J5">
-        <v>8.136441661939408</v>
+        <v>4.848758421236927</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>13.00572476837068</v>
+        <v>8.236341924679627</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.99175752699884</v>
+        <v>12.85278276966416</v>
       </c>
       <c r="O5">
-        <v>30.13898152235226</v>
+        <v>19.53644833206249</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.60507286503971</v>
+        <v>19.39394059920865</v>
       </c>
       <c r="C6">
-        <v>6.253169282884449</v>
+        <v>10.55525376496004</v>
       </c>
       <c r="D6">
-        <v>13.25244296390695</v>
+        <v>8.456629661533032</v>
       </c>
       <c r="E6">
-        <v>13.36360368312696</v>
+        <v>7.778796153570788</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.696353363662585</v>
+        <v>2.111740703085403</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>28.00890194383681</v>
+        <v>17.27535812376197</v>
       </c>
       <c r="J6">
-        <v>8.136719213118008</v>
+        <v>4.849390163497093</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>13.00555697609624</v>
+        <v>8.227202773291218</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.99447142049362</v>
+        <v>12.86108930235408</v>
       </c>
       <c r="O6">
-        <v>30.14234874951336</v>
+        <v>19.52765417377979</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.7142722257012</v>
+        <v>19.82364721669498</v>
       </c>
       <c r="C7">
-        <v>6.378033069798478</v>
+        <v>10.78639083869716</v>
       </c>
       <c r="D7">
-        <v>13.24885367834457</v>
+        <v>8.504938085364333</v>
       </c>
       <c r="E7">
-        <v>13.3532453992219</v>
+        <v>7.7693570438442</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.69556548650346</v>
+        <v>2.109763092495539</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.97542069356686</v>
+        <v>17.24871421526996</v>
       </c>
       <c r="J7">
-        <v>8.134811882513899</v>
+        <v>4.845039511737538</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>13.00689519613726</v>
+        <v>8.290772247163433</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.9758021324261</v>
+        <v>12.80372157371562</v>
       </c>
       <c r="O7">
-        <v>30.11957926338869</v>
+        <v>19.5901519340668</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.19634139952786</v>
+        <v>21.62874659944381</v>
       </c>
       <c r="C8">
-        <v>6.898852237251421</v>
+        <v>11.75251214180979</v>
       </c>
       <c r="D8">
-        <v>13.23826424090642</v>
+        <v>8.726413737119282</v>
       </c>
       <c r="E8">
-        <v>13.31107217620527</v>
+        <v>7.735384298027583</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.692271164926877</v>
+        <v>2.101312258498386</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>27.83996127222872</v>
+        <v>17.16439394846365</v>
       </c>
       <c r="J8">
-        <v>8.126868759087829</v>
+        <v>4.826687704287108</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.01708207098611</v>
+        <v>8.57414561739674</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.89756934678229</v>
+        <v>12.55762827778036</v>
       </c>
       <c r="O8">
-        <v>30.03404722746899</v>
+        <v>19.90261321681455</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.13426148060372</v>
+        <v>24.83302774918386</v>
       </c>
       <c r="C9">
-        <v>7.8096820624539</v>
+        <v>13.45328679675301</v>
       </c>
       <c r="D9">
-        <v>13.23632971600388</v>
+        <v>9.188455836655585</v>
       </c>
       <c r="E9">
-        <v>13.24105403938091</v>
+        <v>7.697880930739491</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.68646202856756</v>
+        <v>2.085671699397056</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>27.61865360537207</v>
+        <v>17.13061166392298</v>
       </c>
       <c r="J9">
-        <v>8.112984105625477</v>
+        <v>4.793716391749865</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>13.05230738774878</v>
+        <v>9.1360100417235</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.75898770547266</v>
+        <v>12.09958324806202</v>
       </c>
       <c r="O9">
-        <v>29.92028913337122</v>
+        <v>20.65227582280661</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.81189067101674</v>
+        <v>27.06809565820387</v>
       </c>
       <c r="C10">
-        <v>8.410361496727079</v>
+        <v>14.58555485627518</v>
       </c>
       <c r="D10">
-        <v>13.24634271760607</v>
+        <v>9.542961030044651</v>
       </c>
       <c r="E10">
-        <v>13.19732168986459</v>
+        <v>7.689544161304269</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.682586598448946</v>
+        <v>2.074686961624039</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.48323646230982</v>
+        <v>17.19735827844878</v>
       </c>
       <c r="J10">
-        <v>8.103804919977934</v>
+        <v>4.771307547918509</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>13.08734303270064</v>
+        <v>9.549299305769193</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.66613277712204</v>
+        <v>11.77725546361875</v>
       </c>
       <c r="O10">
-        <v>29.86981787890616</v>
+        <v>21.2903602423705</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.11629485899123</v>
+        <v>28.04632743583866</v>
       </c>
       <c r="C11">
-        <v>8.668614926958782</v>
+        <v>15.07555265203906</v>
       </c>
       <c r="D11">
-        <v>13.25336642573982</v>
+        <v>9.707136971905035</v>
       </c>
       <c r="E11">
-        <v>13.17909614466858</v>
+        <v>7.690257481899058</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.680907879351342</v>
+        <v>2.069784981138376</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>27.42756569763419</v>
+        <v>17.25008930507367</v>
       </c>
       <c r="J11">
-        <v>8.099848946882764</v>
+        <v>4.761502792118756</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>13.10523505134565</v>
+        <v>9.736833781829381</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.62581935339424</v>
+        <v>11.63354522162248</v>
       </c>
       <c r="O11">
-        <v>29.85408069549418</v>
+        <v>21.6002708470596</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.23090315140133</v>
+        <v>28.40938155587577</v>
       </c>
       <c r="C12">
-        <v>8.764245309681543</v>
+        <v>15.25753531762046</v>
       </c>
       <c r="D12">
-        <v>13.2563794801036</v>
+        <v>9.769697472064532</v>
       </c>
       <c r="E12">
-        <v>13.17243417219633</v>
+        <v>7.691204262259545</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.680284234615009</v>
+        <v>2.067941082618545</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>27.40734022522021</v>
+        <v>17.27347967121327</v>
       </c>
       <c r="J12">
-        <v>8.098382360365228</v>
+        <v>4.757845657613334</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>13.11228793655317</v>
+        <v>9.807739143939481</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.61082952141224</v>
+        <v>11.57953384228135</v>
       </c>
       <c r="O12">
-        <v>29.8491619788117</v>
+        <v>21.72049818184498</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.20625136155716</v>
+        <v>28.33151803604353</v>
       </c>
       <c r="C13">
-        <v>8.74374595769237</v>
+        <v>15.21850015439695</v>
       </c>
       <c r="D13">
-        <v>13.25571487975613</v>
+        <v>9.756206976082424</v>
       </c>
       <c r="E13">
-        <v>13.17385829342209</v>
+        <v>7.690969791738477</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.680418012748644</v>
+        <v>2.068337670398313</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>27.41165803254964</v>
+        <v>17.26828664472652</v>
       </c>
       <c r="J13">
-        <v>8.098696819207714</v>
+        <v>4.758630812439667</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>13.11075668386867</v>
+        <v>9.792473887374738</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.61404559227958</v>
+        <v>11.59114815632577</v>
       </c>
       <c r="O13">
-        <v>29.85017500409027</v>
+        <v>21.69447666198751</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.12573764177214</v>
+        <v>28.07634347318972</v>
       </c>
       <c r="C14">
-        <v>8.676525911295329</v>
+        <v>15.09059576308261</v>
       </c>
       <c r="D14">
-        <v>13.25360724074346</v>
+        <v>9.712276178327869</v>
       </c>
       <c r="E14">
-        <v>13.17854325896553</v>
+        <v>7.690321644138888</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.680856330587086</v>
+        <v>2.069633042231828</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>27.42588456687635</v>
+        <v>17.25194387518685</v>
       </c>
       <c r="J14">
-        <v>8.099727660302483</v>
+        <v>4.761200802098845</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>13.1058097541189</v>
+        <v>9.742669626673003</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.62458060580906</v>
+        <v>11.62909354538408</v>
       </c>
       <c r="O14">
-        <v>29.85365516448904</v>
+        <v>21.61010422332338</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.07633119439561</v>
+        <v>27.91908340160811</v>
       </c>
       <c r="C15">
-        <v>8.635069620704227</v>
+        <v>15.01178708101618</v>
       </c>
       <c r="D15">
-        <v>13.25236221103472</v>
+        <v>9.68541740946549</v>
       </c>
       <c r="E15">
-        <v>13.18144413610018</v>
+        <v>7.690013628520359</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.68112638029353</v>
+        <v>2.07042806648125</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>27.43471027190859</v>
+        <v>17.24238526131493</v>
       </c>
       <c r="J15">
-        <v>8.100363172552354</v>
+        <v>4.76278224413183</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>13.10281565819031</v>
+        <v>9.712147641530787</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.63106951578013</v>
+        <v>11.65238908362723</v>
       </c>
       <c r="O15">
-        <v>29.85592243320005</v>
+        <v>21.55879890068413</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.79191016566075</v>
+        <v>27.00312771538334</v>
       </c>
       <c r="C16">
-        <v>8.393181476857107</v>
+        <v>14.55303075317398</v>
       </c>
       <c r="D16">
-        <v>13.24593324158358</v>
+        <v>9.532287837300391</v>
       </c>
       <c r="E16">
-        <v>13.19854632267904</v>
+        <v>7.689590642728215</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.682697996294634</v>
+        <v>2.075009121806081</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.48699428054194</v>
+        <v>17.19437984979234</v>
       </c>
       <c r="J16">
-        <v>8.104067861107893</v>
+        <v>4.771956120307737</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>13.08621278092619</v>
+        <v>9.537030240243553</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.66880603269407</v>
+        <v>11.78670502652068</v>
       </c>
       <c r="O16">
-        <v>29.87099186072162</v>
+        <v>21.27050611249622</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.61636090700902</v>
+        <v>26.42796847796649</v>
       </c>
       <c r="C17">
-        <v>8.240942836590797</v>
+        <v>14.26520002702372</v>
       </c>
       <c r="D17">
-        <v>13.24262046665472</v>
+        <v>9.439072137809903</v>
       </c>
       <c r="E17">
-        <v>13.20946510616039</v>
+        <v>7.69050528565036</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.683683661108416</v>
+        <v>2.077842903460065</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.52059004861577</v>
+        <v>17.17080511152314</v>
       </c>
       <c r="J17">
-        <v>8.106396737064019</v>
+        <v>4.777683475872082</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>13.07652558258356</v>
+        <v>9.42944838957033</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.69244887681042</v>
+        <v>11.86984285512402</v>
       </c>
       <c r="O17">
-        <v>29.88208792038876</v>
+        <v>21.09871235747516</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.51503312870346</v>
+        <v>26.09225288744099</v>
       </c>
       <c r="C18">
-        <v>8.151967692329434</v>
+        <v>14.09728439152319</v>
       </c>
       <c r="D18">
-        <v>13.24094753132158</v>
+        <v>9.385732271074881</v>
       </c>
       <c r="E18">
-        <v>13.21590236784785</v>
+        <v>7.691453682680861</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.6842585216262</v>
+        <v>2.07948184744756</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>27.54047154226665</v>
+        <v>17.15933850806469</v>
       </c>
       <c r="J18">
-        <v>8.107756930702017</v>
+        <v>4.781014338967999</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>13.07113791455873</v>
+        <v>9.367527746156762</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.70622903316238</v>
+        <v>11.91793684405109</v>
       </c>
       <c r="O18">
-        <v>29.88914980184867</v>
+        <v>21.00174744720671</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.4806674737095</v>
+        <v>25.97774117866652</v>
       </c>
       <c r="C19">
-        <v>8.121600100388378</v>
+        <v>14.04002417797511</v>
       </c>
       <c r="D19">
-        <v>13.24042108078879</v>
+        <v>9.367720505213079</v>
       </c>
       <c r="E19">
-        <v>13.21810889896659</v>
+        <v>7.691846469684092</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.684454523806366</v>
+        <v>2.080038353962486</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>27.54729883772887</v>
+        <v>17.15580932559698</v>
       </c>
       <c r="J19">
-        <v>8.108221025855071</v>
+        <v>4.782148413074104</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>13.06934547191329</v>
+        <v>9.346556580560902</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.71092594919817</v>
+        <v>11.93426827553949</v>
       </c>
       <c r="O19">
-        <v>29.89165750590377</v>
+        <v>20.96923246135151</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.63508612851229</v>
+        <v>26.4897015539746</v>
       </c>
       <c r="C20">
-        <v>8.25729505166262</v>
+        <v>14.29608441575208</v>
       </c>
       <c r="D20">
-        <v>13.24294906722617</v>
+        <v>9.448966824977905</v>
       </c>
       <c r="E20">
-        <v>13.20828652931258</v>
+        <v>7.690364007366251</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.683577914911623</v>
+        <v>2.077540317262459</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.51695593938025</v>
+        <v>17.17309658094772</v>
       </c>
       <c r="J20">
-        <v>8.106146684328849</v>
+        <v>4.777069998949874</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>13.07753776646293</v>
+        <v>9.440905374791319</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.68991328749224</v>
+        <v>11.86096428040009</v>
       </c>
       <c r="O20">
-        <v>29.88083636083844</v>
+        <v>21.11680866953992</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.14940530423604</v>
+        <v>28.15149395301121</v>
       </c>
       <c r="C21">
-        <v>8.696328861397232</v>
+        <v>15.12826091032493</v>
       </c>
       <c r="D21">
-        <v>13.25421673070357</v>
+        <v>9.725169318968462</v>
       </c>
       <c r="E21">
-        <v>13.17716066938573</v>
+        <v>7.690493421746542</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.680727259485418</v>
+        <v>2.069252235051237</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>27.42168263844841</v>
+        <v>17.25664961876191</v>
       </c>
       <c r="J21">
-        <v>8.099424024691045</v>
+        <v>4.76044442348527</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>13.1072552827647</v>
+        <v>9.757301627703326</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.62147873524533</v>
+        <v>11.61793706092164</v>
       </c>
       <c r="O21">
-        <v>29.85260470146284</v>
+        <v>21.63480817414013</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.48163208002223</v>
+        <v>29.19459889860024</v>
       </c>
       <c r="C22">
-        <v>8.970644423750993</v>
+        <v>15.65135645718269</v>
       </c>
       <c r="D22">
-        <v>13.26363932384534</v>
+        <v>9.907950574067517</v>
       </c>
       <c r="E22">
-        <v>13.15821482613907</v>
+        <v>7.694536264080565</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.678934397689232</v>
+        <v>2.063906952594505</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>27.36440584187422</v>
+        <v>17.33129997124316</v>
       </c>
       <c r="J22">
-        <v>8.095213657552888</v>
+        <v>4.749903315033939</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>13.12829350902024</v>
+        <v>9.963429850104543</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.57836097583129</v>
+        <v>11.46148162151682</v>
       </c>
       <c r="O22">
-        <v>29.84021974048175</v>
+        <v>21.99010607126911</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.30470864526026</v>
+        <v>28.64177277667208</v>
       </c>
       <c r="C23">
-        <v>8.825393431275236</v>
+        <v>15.37405779580257</v>
       </c>
       <c r="D23">
-        <v>13.25842256828788</v>
+        <v>9.810197484143032</v>
       </c>
       <c r="E23">
-        <v>13.16819887557371</v>
+        <v>7.692006547357313</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.679884878558108</v>
+        <v>2.06675374512337</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>27.39451801689921</v>
+        <v>17.28955547962029</v>
       </c>
       <c r="J23">
-        <v>8.097444084178234</v>
+        <v>4.755499663370295</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>13.11691833191021</v>
+        <v>9.853487351054563</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.60122693777933</v>
+        <v>11.54477080353217</v>
       </c>
       <c r="O23">
-        <v>29.84627424639272</v>
+        <v>21.79892861642954</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.62662170014739</v>
+        <v>26.46180776349106</v>
       </c>
       <c r="C24">
-        <v>8.249906734602698</v>
+        <v>14.28212917990107</v>
       </c>
       <c r="D24">
-        <v>13.2427997853106</v>
+        <v>9.444492652687476</v>
       </c>
       <c r="E24">
-        <v>13.20881886578822</v>
+        <v>7.690426565270386</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.683625697254643</v>
+        <v>2.077677085969854</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.51859715465958</v>
+        <v>17.17205412320222</v>
       </c>
       <c r="J24">
-        <v>8.106259666838286</v>
+        <v>4.777347233080548</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>13.07707959210942</v>
+        <v>9.435725887807154</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.69105904304323</v>
+        <v>11.86497735827064</v>
       </c>
       <c r="O24">
-        <v>29.88140006472625</v>
+        <v>21.10862171874172</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.88205662611571</v>
+        <v>24.00258444524879</v>
       </c>
       <c r="C25">
-        <v>7.57524823042884</v>
+        <v>13.0138769250827</v>
       </c>
       <c r="D25">
-        <v>13.23484085115008</v>
+        <v>9.060687973195787</v>
       </c>
       <c r="E25">
-        <v>13.25864023875148</v>
+        <v>7.704761164469448</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.687964307814114</v>
+        <v>2.089809265431839</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>27.67376156772606</v>
+        <v>17.12450303621771</v>
       </c>
       <c r="J25">
-        <v>8.116560140105726</v>
+        <v>4.802315613217814</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>13.04115907081313</v>
+        <v>8.983706424923287</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.79489826545732</v>
+        <v>12.22094891084766</v>
       </c>
       <c r="O25">
-        <v>29.94526283954927</v>
+        <v>20.43438429125119</v>
       </c>
     </row>
   </sheetData>
